--- a/2_data_processing/bdl/bdl_dict.xlsx
+++ b/2_data_processing/bdl/bdl_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sghedu-my.sharepoint.com/personal/rr109174_student_sgh_waw_pl/Documents/WarsawEconometricChallenge/WarsawEconometricChallenge/2_data_processing/bdl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="11_F25DC773A252ABDACC10488069986F345BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{459ED021-309D-4F96-A55B-A30DA6E5D540}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="11_F25DC773A252ABDACC10488069986F345BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E5BFD44-36BC-48E7-B252-72C9B0539FAA}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-26250" yWindow="4620" windowWidth="14400" windowHeight="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2175" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="to_download" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>id</t>
   </si>
   <si>
     <t>var_Id</t>
+  </si>
+  <si>
+    <t>1633207</t>
   </si>
 </sst>
 </file>
@@ -348,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -503,6 +506,14 @@
         <v>65600</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2_data_processing/bdl/bdl_dict.xlsx
+++ b/2_data_processing/bdl/bdl_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sghedu-my.sharepoint.com/personal/rr109174_student_sgh_waw_pl/Documents/WarsawEconometricChallenge/WarsawEconometricChallenge/2_data_processing/bdl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="11_F25DC773A252ABDACC10488069986F345BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E5BFD44-36BC-48E7-B252-72C9B0539FAA}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="11_F25DC773A252ABDACC10488069986F345BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F68375F6-45E6-4C36-A4BC-076A72657E71}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2175" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,6 +514,46 @@
         <v>2</v>
       </c>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>10514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>563222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>563223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>563228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>563229</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
